--- a/public/images/image live link.xlsx
+++ b/public/images/image live link.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Sl</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>https://i.ibb.co/mvr33RD/sylhet.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/WPw49f8/address-3595587.png</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
 </sst>
 </file>
@@ -504,7 +510,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -689,8 +695,12 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -731,8 +741,9 @@
     <hyperlink ref="C12" r:id="rId10"/>
     <hyperlink ref="C13" r:id="rId11"/>
     <hyperlink ref="C14" r:id="rId12"/>
+    <hyperlink ref="C15" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>